--- a/hasil-ujian/hasil-ujian.xlsx
+++ b/hasil-ujian/hasil-ujian.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875"/>
+    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
+    <sheet name="evaluasi program" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'evaluasi program'!$A$1:$G$16</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>Nama</t>
   </si>
@@ -28,6 +32,9 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Idris</t>
   </si>
   <si>
@@ -86,6 +93,184 @@
   </si>
   <si>
     <t>Alvin</t>
+  </si>
+  <si>
+    <t>Khalis</t>
+  </si>
+  <si>
+    <t>Yusuf</t>
+  </si>
+  <si>
+    <t>Suhail</t>
+  </si>
+  <si>
+    <t>Rosyid</t>
+  </si>
+  <si>
+    <t>Sano</t>
+  </si>
+  <si>
+    <t>Syifa</t>
+  </si>
+  <si>
+    <t>Putri</t>
+  </si>
+  <si>
+    <t>Alya</t>
+  </si>
+  <si>
+    <t>Najwa</t>
+  </si>
+  <si>
+    <t>Intan</t>
+  </si>
+  <si>
+    <t>Sekar</t>
+  </si>
+  <si>
+    <t>Dhafia</t>
+  </si>
+  <si>
+    <t>Haura</t>
+  </si>
+  <si>
+    <t>Nisa</t>
+  </si>
+  <si>
+    <t>Niswah</t>
+  </si>
+  <si>
+    <t>Sabila</t>
+  </si>
+  <si>
+    <t>Aiko</t>
+  </si>
+  <si>
+    <t>Aisyah</t>
+  </si>
+  <si>
+    <t>Amila</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Khanza</t>
+  </si>
+  <si>
+    <t>Hanif</t>
+  </si>
+  <si>
+    <t>Ifroyim</t>
+  </si>
+  <si>
+    <t>Kamil</t>
+  </si>
+  <si>
+    <t>Mirza</t>
+  </si>
+  <si>
+    <t>Daffa</t>
+  </si>
+  <si>
+    <t>Nizam</t>
+  </si>
+  <si>
+    <t>Thoriq</t>
+  </si>
+  <si>
+    <t>Islah</t>
+  </si>
+  <si>
+    <t>Apel Pagi</t>
+  </si>
+  <si>
+    <t>Habis Dzuhur</t>
+  </si>
+  <si>
+    <t>Ahad Pagi</t>
+  </si>
+  <si>
+    <t>Iqob</t>
+  </si>
+  <si>
+    <t>Evaluasi Umum</t>
+  </si>
+  <si>
+    <t>Belum menyetorkan mufrodat iqob</t>
+  </si>
+  <si>
+    <t>Banyak mufrodat yang nggak tau
+Udah mencoba menghapalkan tapi belum hapal semua</t>
+  </si>
+  <si>
+    <t>Seringnya nggak bisa jawab bahasa Arabnya
+Kadang nggak ditulis di buku karena lupa bawa buku</t>
+  </si>
+  <si>
+    <t>Kadang salah hapal (seperti salah baca harokat) karena susah dibaca</t>
+  </si>
+  <si>
+    <t>Mufrodat sendiri belum dihapal karena malas</t>
+  </si>
+  <si>
+    <t>Karena disuruh maju, jadi hapal</t>
+  </si>
+  <si>
+    <t>Belum ada ngapal mufrodat yang diberikan
+Cuma menghapal mufrodat sendiri
+Tapi tau kalau semua mufrodat itu diujikan
+Nggak menghapal mufrodat karena takut pusing
+Karena banyak yang dihapal; hadits, kisah (tugas merangkum). Takut kecapekan pikirannya</t>
+  </si>
+  <si>
+    <t>Seringnya nggak bisa jawab bahasa Arabnya
+Yang ditulis di buku, belum ditanya bahasa Arabnya
+Kadang nggak bawa buku</t>
+  </si>
+  <si>
+    <t>Mufrodat temannya nggak dihapal</t>
+  </si>
+  <si>
+    <t>Lupa-lupa mufrodatnya
+Di list mufrodat, banyak yang nggak hapal
+Mufrodatnya susah dibaca</t>
+  </si>
+  <si>
+    <t>Nggak punya buku semenjak kelas 3</t>
+  </si>
+  <si>
+    <t>Kadang lupa</t>
+  </si>
+  <si>
+    <t>Kertasnya dipakai terus
+Baru menghapal 1 halaman pertama</t>
+  </si>
+  <si>
+    <t>Ada yang nggak ditulis, tapi pas muhasabah nggak maju (pelanggaran soalnya)</t>
+  </si>
+  <si>
+    <t>Ada mufrodat kawannya yang nggak diperhatikan
+Ada mufrodat temannya yang nggak hapal</t>
+  </si>
+  <si>
+    <t>Banyak mufrodat yang belum dihapal
+Baru 2 halaman yang dihapal
+Tidak menghapal semuanya karena malas</t>
+  </si>
+  <si>
+    <t>Bisa jawab islah</t>
+  </si>
+  <si>
+    <t>Kebanyakan mufrodat kawannya udah hapal</t>
+  </si>
+  <si>
+    <t>Mufrodat kawannya saat Ahad pagi, kebanyakan hapal. Tapi kalau kawannya nyebutnya kurang jelas, nggak hapal</t>
+  </si>
+  <si>
+    <t>Yang keluar soalnya, nggak pernah dihapalin
+Kertasnya kadang nggak ada
+Setiap halaman, ada mufrodat yang dihapal. Ada beberapa yang muncul di ujian</t>
   </si>
 </sst>
 </file>
@@ -93,12 +278,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,10 +292,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,7 +315,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -136,8 +329,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +354,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -159,33 +376,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,25 +414,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,14 +428,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -249,16 +435,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,25 +445,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,13 +601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,31 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,115 +635,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,21 +674,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +708,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -543,171 +757,174 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,13 +999,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0">
-  <autoFilter ref="A1:D20"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+  <autoFilter ref="A1:E48"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Nama"/>
     <tableColumn id="2" name="Nilai"/>
     <tableColumn id="3" name="Kelas"/>
     <tableColumn id="4" name="Gender"/>
+    <tableColumn id="5" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1052,15 +1270,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="7.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="5.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="5.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="7.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="9.88888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,10 +1298,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>70</v>
@@ -1085,12 +1313,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E48" si="0">IF(B2&gt;60,"Lulus","Tidak Lulus")</f>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1099,12 +1331,16 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -1113,12 +1349,16 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -1127,12 +1367,16 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -1141,12 +1385,16 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -1155,12 +1403,16 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -1169,12 +1421,16 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>80</v>
@@ -1183,12 +1439,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -1197,12 +1457,16 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>70</v>
@@ -1211,12 +1475,16 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>80</v>
@@ -1225,12 +1493,16 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>80</v>
@@ -1239,12 +1511,16 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>80</v>
@@ -1253,12 +1529,16 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1267,12 +1547,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -1281,12 +1565,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>80</v>
@@ -1295,12 +1583,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -1309,12 +1601,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>30</v>
@@ -1323,12 +1619,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>70</v>
@@ -1337,7 +1637,515 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>80</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Tidak Lulus</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>70</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>80</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>70</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>90</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Lulus</v>
       </c>
     </row>
   </sheetData>
@@ -1352,4 +2160,265 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.22222222222222" customWidth="1"/>
+    <col min="2" max="7" width="22.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="75" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" ht="180" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="75" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" ht="75" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" ht="105" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+  </sheetData>
+  <sortState ref="A15:A16">
+    <sortCondition ref="A15"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>